--- a/fivethirtyeight_election_deniers_Gov50_final.xlsx
+++ b/fivethirtyeight_election_deniers_Gov50_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellyolmos/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellyolmos/Github Gov 50/FinalProjectGOV50/Gov50FinalProjectElectionDeniers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF40ABE-D8CD-EC47-8A24-E68840A068EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A443E9FC-7838-034A-B3BB-77F82A8E3B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fivethirtyeight_election_denier" sheetId="1" r:id="rId1"/>
@@ -2558,9 +2558,6 @@
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>Senator (unexpired term)</t>
-  </si>
-  <si>
     <t>The Oklahoman, congressional roll call</t>
   </si>
   <si>
@@ -3475,12 +3472,15 @@
   </si>
   <si>
     <t>https://boltsmag.org/wyoming-first-election-denier-secretary-of-state/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senator </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4317,10 +4317,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="E397" sqref="E397"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -17689,7 +17691,7 @@
         <v>839</v>
       </c>
       <c r="D399" t="s">
-        <v>840</v>
+        <v>1145</v>
       </c>
       <c r="E399" t="s">
         <v>16</v>
@@ -17698,10 +17700,10 @@
         <v>17</v>
       </c>
       <c r="G399" t="s">
+        <v>840</v>
+      </c>
+      <c r="H399" t="s">
         <v>841</v>
-      </c>
-      <c r="H399" t="s">
-        <v>842</v>
       </c>
       <c r="J399" t="s">
         <v>27</v>
@@ -17715,7 +17717,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B400" t="s">
         <v>23</v>
@@ -17733,10 +17735,10 @@
         <v>46</v>
       </c>
       <c r="G400" t="s">
+        <v>843</v>
+      </c>
+      <c r="H400" t="s">
         <v>844</v>
-      </c>
-      <c r="H400" t="s">
-        <v>845</v>
       </c>
       <c r="J400" t="s">
         <v>20</v>
@@ -17750,7 +17752,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B401" t="s">
         <v>23</v>
@@ -17785,7 +17787,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B402" t="s">
         <v>13</v>
@@ -17817,7 +17819,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B403" t="s">
         <v>23</v>
@@ -17852,7 +17854,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B404" t="s">
         <v>23</v>
@@ -17887,7 +17889,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B405" t="s">
         <v>23</v>
@@ -17922,7 +17924,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B406" t="s">
         <v>23</v>
@@ -17940,10 +17942,10 @@
         <v>58</v>
       </c>
       <c r="G406" t="s">
+        <v>851</v>
+      </c>
+      <c r="H406" t="s">
         <v>852</v>
-      </c>
-      <c r="H406" t="s">
-        <v>853</v>
       </c>
       <c r="J406" t="s">
         <v>27</v>
@@ -17957,7 +17959,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B407" t="s">
         <v>13</v>
@@ -17986,13 +17988,13 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
+        <v>854</v>
+      </c>
+      <c r="B408" t="s">
+        <v>13</v>
+      </c>
+      <c r="C408" t="s">
         <v>855</v>
-      </c>
-      <c r="B408" t="s">
-        <v>13</v>
-      </c>
-      <c r="C408" t="s">
-        <v>856</v>
       </c>
       <c r="D408" t="s">
         <v>15</v>
@@ -18004,10 +18006,10 @@
         <v>17</v>
       </c>
       <c r="G408" t="s">
+        <v>856</v>
+      </c>
+      <c r="H408" t="s">
         <v>857</v>
-      </c>
-      <c r="H408" t="s">
-        <v>858</v>
       </c>
       <c r="J408" t="s">
         <v>39</v>
@@ -18021,13 +18023,13 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B409" t="s">
         <v>13</v>
       </c>
       <c r="C409" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D409" t="s">
         <v>24</v>
@@ -18053,13 +18055,13 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B410" t="s">
         <v>23</v>
       </c>
       <c r="C410" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D410" t="s">
         <v>24</v>
@@ -18071,10 +18073,10 @@
         <v>46</v>
       </c>
       <c r="G410" t="s">
+        <v>860</v>
+      </c>
+      <c r="H410" t="s">
         <v>861</v>
-      </c>
-      <c r="H410" t="s">
-        <v>862</v>
       </c>
       <c r="J410" t="s">
         <v>27</v>
@@ -18088,13 +18090,13 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B411" t="s">
         <v>13</v>
       </c>
       <c r="C411" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D411" t="s">
         <v>24</v>
@@ -18117,13 +18119,13 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B412" t="s">
         <v>13</v>
       </c>
       <c r="C412" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D412" t="s">
         <v>24</v>
@@ -18135,10 +18137,10 @@
         <v>119</v>
       </c>
       <c r="G412" t="s">
+        <v>864</v>
+      </c>
+      <c r="H412" t="s">
         <v>865</v>
-      </c>
-      <c r="H412" t="s">
-        <v>866</v>
       </c>
       <c r="J412" t="s">
         <v>39</v>
@@ -18152,13 +18154,13 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B413" t="s">
         <v>13</v>
       </c>
       <c r="C413" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D413" t="s">
         <v>24</v>
@@ -18184,13 +18186,13 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B414" t="s">
         <v>13</v>
       </c>
       <c r="C414" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D414" t="s">
         <v>24</v>
@@ -18202,10 +18204,10 @@
         <v>58</v>
       </c>
       <c r="G414" t="s">
+        <v>868</v>
+      </c>
+      <c r="H414" t="s">
         <v>869</v>
-      </c>
-      <c r="H414" t="s">
-        <v>870</v>
       </c>
       <c r="J414" t="s">
         <v>39</v>
@@ -18219,13 +18221,13 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B415" t="s">
         <v>13</v>
       </c>
       <c r="C415" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D415" t="s">
         <v>41</v>
@@ -18240,7 +18242,7 @@
         <v>38</v>
       </c>
       <c r="H415" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J415" t="s">
         <v>39</v>
@@ -18254,13 +18256,13 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
+        <v>872</v>
+      </c>
+      <c r="B416" t="s">
+        <v>13</v>
+      </c>
+      <c r="C416" t="s">
         <v>873</v>
-      </c>
-      <c r="B416" t="s">
-        <v>13</v>
-      </c>
-      <c r="C416" t="s">
-        <v>874</v>
       </c>
       <c r="D416" t="s">
         <v>15</v>
@@ -18272,10 +18274,10 @@
         <v>37</v>
       </c>
       <c r="G416" t="s">
+        <v>874</v>
+      </c>
+      <c r="H416" t="s">
         <v>875</v>
-      </c>
-      <c r="H416" t="s">
-        <v>876</v>
       </c>
       <c r="J416" t="s">
         <v>39</v>
@@ -18289,13 +18291,13 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B417" t="s">
         <v>23</v>
       </c>
       <c r="C417" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D417" t="s">
         <v>24</v>
@@ -18307,10 +18309,10 @@
         <v>46</v>
       </c>
       <c r="G417" t="s">
+        <v>877</v>
+      </c>
+      <c r="H417" t="s">
         <v>878</v>
-      </c>
-      <c r="H417" t="s">
-        <v>879</v>
       </c>
       <c r="J417" t="s">
         <v>20</v>
@@ -18324,13 +18326,13 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B418" t="s">
         <v>13</v>
       </c>
       <c r="C418" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D418" t="s">
         <v>24</v>
@@ -18345,7 +18347,7 @@
         <v>33</v>
       </c>
       <c r="H418" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J418" t="s">
         <v>39</v>
@@ -18359,13 +18361,13 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B419" t="s">
         <v>13</v>
       </c>
       <c r="C419" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D419" t="s">
         <v>24</v>
@@ -18391,13 +18393,13 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B420" t="s">
         <v>13</v>
       </c>
       <c r="C420" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D420" t="s">
         <v>24</v>
@@ -18420,13 +18422,13 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B421" t="s">
         <v>13</v>
       </c>
       <c r="C421" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D421" t="s">
         <v>24</v>
@@ -18441,7 +18443,7 @@
         <v>88</v>
       </c>
       <c r="H421" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J421" t="s">
         <v>39</v>
@@ -18455,13 +18457,13 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B422" t="s">
         <v>13</v>
       </c>
       <c r="C422" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D422" t="s">
         <v>24</v>
@@ -18484,13 +18486,13 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B423" t="s">
         <v>13</v>
       </c>
       <c r="C423" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D423" t="s">
         <v>24</v>
@@ -18505,7 +18507,7 @@
         <v>484</v>
       </c>
       <c r="H423" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J423" t="s">
         <v>39</v>
@@ -18519,13 +18521,13 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B424" t="s">
         <v>23</v>
       </c>
       <c r="C424" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D424" t="s">
         <v>24</v>
@@ -18554,13 +18556,13 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B425" t="s">
         <v>23</v>
       </c>
       <c r="C425" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D425" t="s">
         <v>24</v>
@@ -18589,13 +18591,13 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B426" t="s">
         <v>23</v>
       </c>
       <c r="C426" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D426" t="s">
         <v>24</v>
@@ -18624,13 +18626,13 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B427" t="s">
         <v>13</v>
       </c>
       <c r="C427" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D427" t="s">
         <v>24</v>
@@ -18653,13 +18655,13 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B428" t="s">
         <v>23</v>
       </c>
       <c r="C428" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D428" t="s">
         <v>24</v>
@@ -18688,13 +18690,13 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B429" t="s">
         <v>23</v>
       </c>
       <c r="C429" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D429" t="s">
         <v>24</v>
@@ -18723,13 +18725,13 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B430" t="s">
         <v>23</v>
       </c>
       <c r="C430" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D430" t="s">
         <v>24</v>
@@ -18758,13 +18760,13 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B431" t="s">
         <v>23</v>
       </c>
       <c r="C431" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D431" t="s">
         <v>24</v>
@@ -18793,13 +18795,13 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B432" t="s">
         <v>13</v>
       </c>
       <c r="C432" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D432" t="s">
         <v>24</v>
@@ -18822,13 +18824,13 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B433" t="s">
         <v>13</v>
       </c>
       <c r="C433" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D433" t="s">
         <v>41</v>
@@ -18840,10 +18842,10 @@
         <v>17</v>
       </c>
       <c r="G433" t="s">
+        <v>898</v>
+      </c>
+      <c r="H433" t="s">
         <v>899</v>
-      </c>
-      <c r="H433" t="s">
-        <v>900</v>
       </c>
       <c r="J433" t="s">
         <v>39</v>
@@ -18857,13 +18859,13 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
+        <v>900</v>
+      </c>
+      <c r="B434" t="s">
+        <v>13</v>
+      </c>
+      <c r="C434" t="s">
         <v>901</v>
-      </c>
-      <c r="B434" t="s">
-        <v>13</v>
-      </c>
-      <c r="C434" t="s">
-        <v>902</v>
       </c>
       <c r="D434" t="s">
         <v>24</v>
@@ -18886,13 +18888,13 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B435" t="s">
         <v>13</v>
       </c>
       <c r="C435" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D435" t="s">
         <v>24</v>
@@ -18918,13 +18920,13 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B436" t="s">
         <v>13</v>
       </c>
       <c r="C436" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D436" t="s">
         <v>41</v>
@@ -18936,10 +18938,10 @@
         <v>119</v>
       </c>
       <c r="G436" t="s">
+        <v>904</v>
+      </c>
+      <c r="H436" t="s">
         <v>905</v>
-      </c>
-      <c r="H436" t="s">
-        <v>906</v>
       </c>
       <c r="J436" t="s">
         <v>39</v>
@@ -18953,13 +18955,13 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B437" t="s">
         <v>13</v>
       </c>
       <c r="C437" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D437" t="s">
         <v>45</v>
@@ -18982,13 +18984,13 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B438" t="s">
         <v>13</v>
       </c>
       <c r="C438" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D438" t="s">
         <v>50</v>
@@ -19014,13 +19016,13 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
+        <v>908</v>
+      </c>
+      <c r="B439" t="s">
+        <v>23</v>
+      </c>
+      <c r="C439" t="s">
         <v>909</v>
-      </c>
-      <c r="B439" t="s">
-        <v>23</v>
-      </c>
-      <c r="C439" t="s">
-        <v>910</v>
       </c>
       <c r="D439" t="s">
         <v>15</v>
@@ -19032,7 +19034,7 @@
         <v>46</v>
       </c>
       <c r="G439" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H439" t="s">
         <v>59</v>
@@ -19049,13 +19051,13 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B440" t="s">
         <v>23</v>
       </c>
       <c r="C440" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D440" t="s">
         <v>24</v>
@@ -19084,13 +19086,13 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B441" t="s">
         <v>23</v>
       </c>
       <c r="C441" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D441" t="s">
         <v>24</v>
@@ -19119,13 +19121,13 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B442" t="s">
         <v>23</v>
       </c>
       <c r="C442" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D442" t="s">
         <v>24</v>
@@ -19154,13 +19156,13 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B443" t="s">
         <v>23</v>
       </c>
       <c r="C443" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D443" t="s">
         <v>24</v>
@@ -19189,13 +19191,13 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B444" t="s">
         <v>23</v>
       </c>
       <c r="C444" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D444" t="s">
         <v>24</v>
@@ -19224,13 +19226,13 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B445" t="s">
         <v>13</v>
       </c>
       <c r="C445" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D445" t="s">
         <v>24</v>
@@ -19253,13 +19255,13 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B446" t="s">
         <v>13</v>
       </c>
       <c r="C446" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D446" t="s">
         <v>24</v>
@@ -19271,10 +19273,10 @@
         <v>17</v>
       </c>
       <c r="G446" t="s">
+        <v>918</v>
+      </c>
+      <c r="H446" t="s">
         <v>919</v>
-      </c>
-      <c r="H446" t="s">
-        <v>920</v>
       </c>
       <c r="J446" t="s">
         <v>27</v>
@@ -19288,13 +19290,13 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B447" t="s">
         <v>23</v>
       </c>
       <c r="C447" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D447" t="s">
         <v>41</v>
@@ -19306,10 +19308,10 @@
         <v>37</v>
       </c>
       <c r="G447" t="s">
+        <v>921</v>
+      </c>
+      <c r="H447" t="s">
         <v>922</v>
-      </c>
-      <c r="H447" t="s">
-        <v>923</v>
       </c>
       <c r="J447" t="s">
         <v>20</v>
@@ -19323,13 +19325,13 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B448" t="s">
         <v>23</v>
       </c>
       <c r="C448" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D448" t="s">
         <v>45</v>
@@ -19341,10 +19343,10 @@
         <v>17</v>
       </c>
       <c r="G448" t="s">
+        <v>924</v>
+      </c>
+      <c r="H448" t="s">
         <v>925</v>
-      </c>
-      <c r="H448" t="s">
-        <v>926</v>
       </c>
       <c r="J448" t="s">
         <v>20</v>
@@ -19358,13 +19360,13 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B449" t="s">
         <v>23</v>
       </c>
       <c r="C449" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D449" t="s">
         <v>50</v>
@@ -19385,15 +19387,15 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
+        <v>927</v>
+      </c>
+      <c r="B450" t="s">
+        <v>23</v>
+      </c>
+      <c r="C450" t="s">
         <v>928</v>
-      </c>
-      <c r="B450" t="s">
-        <v>23</v>
-      </c>
-      <c r="C450" t="s">
-        <v>929</v>
       </c>
       <c r="D450" t="s">
         <v>15</v>
@@ -19405,10 +19407,10 @@
         <v>58</v>
       </c>
       <c r="G450" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="H450" t="s">
         <v>930</v>
-      </c>
-      <c r="H450" t="s">
-        <v>931</v>
       </c>
       <c r="J450" t="s">
         <v>20</v>
@@ -19422,13 +19424,13 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B451" t="s">
         <v>23</v>
       </c>
       <c r="C451" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D451" t="s">
         <v>24</v>
@@ -19440,10 +19442,10 @@
         <v>46</v>
       </c>
       <c r="G451" t="s">
+        <v>932</v>
+      </c>
+      <c r="H451" t="s">
         <v>933</v>
-      </c>
-      <c r="H451" t="s">
-        <v>934</v>
       </c>
       <c r="J451" t="s">
         <v>27</v>
@@ -19457,13 +19459,13 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B452" t="s">
         <v>23</v>
       </c>
       <c r="C452" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D452" t="s">
         <v>41</v>
@@ -19478,7 +19480,7 @@
         <v>88</v>
       </c>
       <c r="H452" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J452" t="s">
         <v>20</v>
@@ -19492,13 +19494,13 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B453" t="s">
         <v>13</v>
       </c>
       <c r="C453" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D453" t="s">
         <v>45</v>
@@ -19521,13 +19523,13 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B454" t="s">
         <v>13</v>
       </c>
       <c r="C454" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D454" t="s">
         <v>50</v>
@@ -19539,10 +19541,10 @@
         <v>37</v>
       </c>
       <c r="G454" t="s">
+        <v>938</v>
+      </c>
+      <c r="H454" t="s">
         <v>939</v>
-      </c>
-      <c r="H454" t="s">
-        <v>940</v>
       </c>
       <c r="J454" t="s">
         <v>20</v>
@@ -19556,13 +19558,13 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
+        <v>940</v>
+      </c>
+      <c r="B455" t="s">
+        <v>23</v>
+      </c>
+      <c r="C455" t="s">
         <v>941</v>
-      </c>
-      <c r="B455" t="s">
-        <v>23</v>
-      </c>
-      <c r="C455" t="s">
-        <v>942</v>
       </c>
       <c r="D455" t="s">
         <v>24</v>
@@ -19591,13 +19593,13 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B456" t="s">
         <v>23</v>
       </c>
       <c r="C456" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D456" t="s">
         <v>24</v>
@@ -19626,13 +19628,13 @@
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B457" t="s">
         <v>23</v>
       </c>
       <c r="C457" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D457" t="s">
         <v>24</v>
@@ -19661,13 +19663,13 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B458" t="s">
         <v>23</v>
       </c>
       <c r="C458" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D458" t="s">
         <v>24</v>
@@ -19696,13 +19698,13 @@
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B459" t="s">
         <v>13</v>
       </c>
       <c r="C459" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D459" t="s">
         <v>24</v>
@@ -19714,10 +19716,10 @@
         <v>17</v>
       </c>
       <c r="G459" t="s">
+        <v>946</v>
+      </c>
+      <c r="H459" t="s">
         <v>947</v>
-      </c>
-      <c r="H459" t="s">
-        <v>948</v>
       </c>
       <c r="J459" t="s">
         <v>20</v>
@@ -19731,13 +19733,13 @@
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B460" t="s">
         <v>23</v>
       </c>
       <c r="C460" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D460" t="s">
         <v>24</v>
@@ -19766,13 +19768,13 @@
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B461" t="s">
         <v>23</v>
       </c>
       <c r="C461" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D461" t="s">
         <v>24</v>
@@ -19784,7 +19786,7 @@
         <v>37</v>
       </c>
       <c r="G461" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H461" t="s">
         <v>26</v>
@@ -19801,13 +19803,13 @@
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B462" t="s">
         <v>23</v>
       </c>
       <c r="C462" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D462" t="s">
         <v>24</v>
@@ -19836,13 +19838,13 @@
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B463" t="s">
         <v>13</v>
       </c>
       <c r="C463" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D463" t="s">
         <v>24</v>
@@ -19857,7 +19859,7 @@
         <v>88</v>
       </c>
       <c r="H463" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J463" t="s">
         <v>39</v>
@@ -19871,13 +19873,13 @@
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B464" t="s">
         <v>23</v>
       </c>
       <c r="C464" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D464" t="s">
         <v>41</v>
@@ -19892,7 +19894,7 @@
         <v>332</v>
       </c>
       <c r="H464" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J464" t="s">
         <v>27</v>
@@ -19906,13 +19908,13 @@
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
+        <v>956</v>
+      </c>
+      <c r="B465" t="s">
+        <v>13</v>
+      </c>
+      <c r="C465" t="s">
         <v>957</v>
-      </c>
-      <c r="B465" t="s">
-        <v>13</v>
-      </c>
-      <c r="C465" t="s">
-        <v>958</v>
       </c>
       <c r="D465" t="s">
         <v>24</v>
@@ -19927,7 +19929,7 @@
         <v>484</v>
       </c>
       <c r="H465" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J465" t="s">
         <v>20</v>
@@ -19941,13 +19943,13 @@
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B466" t="s">
         <v>23</v>
       </c>
       <c r="C466" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D466" t="s">
         <v>24</v>
@@ -19959,10 +19961,10 @@
         <v>46</v>
       </c>
       <c r="G466" t="s">
+        <v>960</v>
+      </c>
+      <c r="H466" t="s">
         <v>961</v>
-      </c>
-      <c r="H466" t="s">
-        <v>962</v>
       </c>
       <c r="J466" t="s">
         <v>27</v>
@@ -19976,13 +19978,13 @@
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B467" t="s">
         <v>13</v>
       </c>
       <c r="C467" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D467" t="s">
         <v>24</v>
@@ -19994,10 +19996,10 @@
         <v>17</v>
       </c>
       <c r="G467" t="s">
+        <v>963</v>
+      </c>
+      <c r="H467" t="s">
         <v>964</v>
-      </c>
-      <c r="H467" t="s">
-        <v>965</v>
       </c>
       <c r="J467" t="s">
         <v>27</v>
@@ -20011,13 +20013,13 @@
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B468" t="s">
         <v>23</v>
       </c>
       <c r="C468" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D468" t="s">
         <v>24</v>
@@ -20046,13 +20048,13 @@
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B469" t="s">
         <v>23</v>
       </c>
       <c r="C469" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D469" t="s">
         <v>24</v>
@@ -20081,13 +20083,13 @@
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B470" t="s">
         <v>23</v>
       </c>
       <c r="C470" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D470" t="s">
         <v>24</v>
@@ -20099,10 +20101,10 @@
         <v>37</v>
       </c>
       <c r="G470" t="s">
+        <v>968</v>
+      </c>
+      <c r="H470" t="s">
         <v>969</v>
-      </c>
-      <c r="H470" t="s">
-        <v>970</v>
       </c>
       <c r="J470" t="s">
         <v>20</v>
@@ -20116,13 +20118,13 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B471" t="s">
         <v>13</v>
       </c>
       <c r="C471" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D471" t="s">
         <v>24</v>
@@ -20134,10 +20136,10 @@
         <v>37</v>
       </c>
       <c r="G471" t="s">
+        <v>971</v>
+      </c>
+      <c r="H471" t="s">
         <v>972</v>
-      </c>
-      <c r="H471" t="s">
-        <v>973</v>
       </c>
       <c r="J471" t="s">
         <v>39</v>
@@ -20151,13 +20153,13 @@
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B472" t="s">
         <v>13</v>
       </c>
       <c r="C472" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D472" t="s">
         <v>24</v>
@@ -20169,10 +20171,10 @@
         <v>17</v>
       </c>
       <c r="G472" t="s">
+        <v>974</v>
+      </c>
+      <c r="H472" t="s">
         <v>975</v>
-      </c>
-      <c r="H472" t="s">
-        <v>976</v>
       </c>
       <c r="J472" t="s">
         <v>20</v>
@@ -20186,13 +20188,13 @@
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B473" t="s">
         <v>13</v>
       </c>
       <c r="C473" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D473" t="s">
         <v>24</v>
@@ -20215,13 +20217,13 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B474" t="s">
         <v>23</v>
       </c>
       <c r="C474" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D474" t="s">
         <v>24</v>
@@ -20233,10 +20235,10 @@
         <v>46</v>
       </c>
       <c r="G474" t="s">
+        <v>978</v>
+      </c>
+      <c r="H474" t="s">
         <v>979</v>
-      </c>
-      <c r="H474" t="s">
-        <v>980</v>
       </c>
       <c r="J474" t="s">
         <v>20</v>
@@ -20250,13 +20252,13 @@
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B475" t="s">
         <v>23</v>
       </c>
       <c r="C475" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D475" t="s">
         <v>24</v>
@@ -20271,7 +20273,7 @@
         <v>442</v>
       </c>
       <c r="H475" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J475" t="s">
         <v>20</v>
@@ -20285,13 +20287,13 @@
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B476" t="s">
         <v>23</v>
       </c>
       <c r="C476" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D476" t="s">
         <v>24</v>
@@ -20303,10 +20305,10 @@
         <v>58</v>
       </c>
       <c r="G476" t="s">
+        <v>983</v>
+      </c>
+      <c r="H476" t="s">
         <v>984</v>
-      </c>
-      <c r="H476" t="s">
-        <v>985</v>
       </c>
       <c r="J476" t="s">
         <v>20</v>
@@ -20320,13 +20322,13 @@
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B477" t="s">
         <v>23</v>
       </c>
       <c r="C477" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D477" t="s">
         <v>24</v>
@@ -20338,10 +20340,10 @@
         <v>17</v>
       </c>
       <c r="G477" t="s">
+        <v>986</v>
+      </c>
+      <c r="H477" t="s">
         <v>987</v>
-      </c>
-      <c r="H477" t="s">
-        <v>988</v>
       </c>
       <c r="J477" t="s">
         <v>27</v>
@@ -20355,13 +20357,13 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B478" t="s">
         <v>23</v>
       </c>
       <c r="C478" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D478" t="s">
         <v>24</v>
@@ -20373,10 +20375,10 @@
         <v>17</v>
       </c>
       <c r="G478" t="s">
+        <v>989</v>
+      </c>
+      <c r="H478" t="s">
         <v>990</v>
-      </c>
-      <c r="H478" t="s">
-        <v>991</v>
       </c>
       <c r="J478" t="s">
         <v>20</v>
@@ -20390,13 +20392,13 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B479" t="s">
         <v>13</v>
       </c>
       <c r="C479" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D479" t="s">
         <v>24</v>
@@ -20411,7 +20413,7 @@
         <v>665</v>
       </c>
       <c r="H479" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J479" t="s">
         <v>27</v>
@@ -20425,13 +20427,13 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B480" t="s">
         <v>13</v>
       </c>
       <c r="C480" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D480" t="s">
         <v>24</v>
@@ -20443,10 +20445,10 @@
         <v>17</v>
       </c>
       <c r="G480" t="s">
+        <v>994</v>
+      </c>
+      <c r="H480" t="s">
         <v>995</v>
-      </c>
-      <c r="H480" t="s">
-        <v>996</v>
       </c>
       <c r="J480" t="s">
         <v>39</v>
@@ -20460,13 +20462,13 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B481" t="s">
         <v>23</v>
       </c>
       <c r="C481" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D481" t="s">
         <v>24</v>
@@ -20495,13 +20497,13 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B482" t="s">
         <v>13</v>
       </c>
       <c r="C482" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D482" t="s">
         <v>24</v>
@@ -20516,7 +20518,7 @@
         <v>88</v>
       </c>
       <c r="H482" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J482" t="s">
         <v>39</v>
@@ -20530,13 +20532,13 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B483" t="s">
         <v>23</v>
       </c>
       <c r="C483" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D483" t="s">
         <v>24</v>
@@ -20565,13 +20567,13 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B484" t="s">
         <v>13</v>
       </c>
       <c r="C484" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D484" t="s">
         <v>24</v>
@@ -20594,13 +20596,13 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B485" t="s">
         <v>23</v>
       </c>
       <c r="C485" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D485" t="s">
         <v>24</v>
@@ -20615,7 +20617,7 @@
         <v>70</v>
       </c>
       <c r="H485" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J485" t="s">
         <v>20</v>
@@ -20629,13 +20631,13 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B486" t="s">
         <v>23</v>
       </c>
       <c r="C486" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D486" t="s">
         <v>24</v>
@@ -20664,13 +20666,13 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B487" t="s">
         <v>23</v>
       </c>
       <c r="C487" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D487" t="s">
         <v>24</v>
@@ -20682,10 +20684,10 @@
         <v>46</v>
       </c>
       <c r="G487" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H487" t="s">
         <v>1006</v>
-      </c>
-      <c r="H487" t="s">
-        <v>1007</v>
       </c>
       <c r="J487" t="s">
         <v>27</v>
@@ -20699,13 +20701,13 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B488" t="s">
         <v>23</v>
       </c>
       <c r="C488" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D488" t="s">
         <v>24</v>
@@ -20720,7 +20722,7 @@
         <v>29</v>
       </c>
       <c r="H488" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J488" t="s">
         <v>27</v>
@@ -20734,13 +20736,13 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B489" t="s">
         <v>23</v>
       </c>
       <c r="C489" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D489" t="s">
         <v>24</v>
@@ -20769,13 +20771,13 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B490" t="s">
         <v>23</v>
       </c>
       <c r="C490" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D490" t="s">
         <v>24</v>
@@ -20787,7 +20789,7 @@
         <v>17</v>
       </c>
       <c r="G490" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H490" t="s">
         <v>151</v>
@@ -20804,13 +20806,13 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B491" t="s">
         <v>23</v>
       </c>
       <c r="C491" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D491" t="s">
         <v>24</v>
@@ -20839,13 +20841,13 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B492" t="s">
         <v>13</v>
       </c>
       <c r="C492" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D492" t="s">
         <v>24</v>
@@ -20868,13 +20870,13 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B493" t="s">
         <v>13</v>
       </c>
       <c r="C493" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D493" t="s">
         <v>24</v>
@@ -20897,13 +20899,13 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B494" t="s">
         <v>13</v>
       </c>
       <c r="C494" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D494" t="s">
         <v>24</v>
@@ -20929,13 +20931,13 @@
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B495" t="s">
         <v>23</v>
       </c>
       <c r="C495" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D495" t="s">
         <v>24</v>
@@ -20964,13 +20966,13 @@
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B496" t="s">
         <v>13</v>
       </c>
       <c r="C496" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D496" t="s">
         <v>24</v>
@@ -20993,13 +20995,13 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B497" t="s">
         <v>13</v>
       </c>
       <c r="C497" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D497" t="s">
         <v>24</v>
@@ -21025,13 +21027,13 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B498" t="s">
         <v>23</v>
       </c>
       <c r="C498" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D498" t="s">
         <v>24</v>
@@ -21046,7 +21048,7 @@
         <v>542</v>
       </c>
       <c r="H498" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J498" t="s">
         <v>39</v>
@@ -21060,13 +21062,13 @@
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B499" t="s">
         <v>13</v>
       </c>
       <c r="C499" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D499" t="s">
         <v>24</v>
@@ -21089,13 +21091,13 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B500" t="s">
         <v>23</v>
       </c>
       <c r="C500" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D500" t="s">
         <v>24</v>
@@ -21124,13 +21126,13 @@
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B501" t="s">
         <v>13</v>
       </c>
       <c r="C501" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D501" t="s">
         <v>24</v>
@@ -21145,7 +21147,7 @@
         <v>88</v>
       </c>
       <c r="H501" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J501" t="s">
         <v>39</v>
@@ -21159,13 +21161,13 @@
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B502" t="s">
         <v>13</v>
       </c>
       <c r="C502" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D502" t="s">
         <v>24</v>
@@ -21188,13 +21190,13 @@
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B503" t="s">
         <v>23</v>
       </c>
       <c r="C503" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D503" t="s">
         <v>41</v>
@@ -21206,10 +21208,10 @@
         <v>37</v>
       </c>
       <c r="G503" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H503" t="s">
         <v>1028</v>
-      </c>
-      <c r="H503" t="s">
-        <v>1029</v>
       </c>
       <c r="J503" t="s">
         <v>20</v>
@@ -21223,13 +21225,13 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B504" t="s">
         <v>23</v>
       </c>
       <c r="C504" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D504" t="s">
         <v>45</v>
@@ -21241,10 +21243,10 @@
         <v>17</v>
       </c>
       <c r="G504" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H504" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J504" t="s">
         <v>27</v>
@@ -21258,13 +21260,13 @@
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B505" t="s">
+        <v>23</v>
+      </c>
+      <c r="C505" t="s">
         <v>1032</v>
-      </c>
-      <c r="B505" t="s">
-        <v>23</v>
-      </c>
-      <c r="C505" t="s">
-        <v>1033</v>
       </c>
       <c r="D505" t="s">
         <v>15</v>
@@ -21276,10 +21278,10 @@
         <v>46</v>
       </c>
       <c r="G505" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H505" t="s">
         <v>1034</v>
-      </c>
-      <c r="H505" t="s">
-        <v>1035</v>
       </c>
       <c r="J505" t="s">
         <v>20</v>
@@ -21293,13 +21295,13 @@
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B506" t="s">
         <v>23</v>
       </c>
       <c r="C506" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D506" t="s">
         <v>24</v>
@@ -21311,10 +21313,10 @@
         <v>46</v>
       </c>
       <c r="G506" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H506" t="s">
         <v>1037</v>
-      </c>
-      <c r="H506" t="s">
-        <v>1038</v>
       </c>
       <c r="J506" t="s">
         <v>27</v>
@@ -21328,13 +21330,13 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B507" t="s">
         <v>23</v>
       </c>
       <c r="C507" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D507" t="s">
         <v>24</v>
@@ -21363,13 +21365,13 @@
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B508" t="s">
         <v>23</v>
       </c>
       <c r="C508" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D508" t="s">
         <v>24</v>
@@ -21381,10 +21383,10 @@
         <v>58</v>
       </c>
       <c r="G508" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H508" t="s">
         <v>1041</v>
-      </c>
-      <c r="H508" t="s">
-        <v>1042</v>
       </c>
       <c r="J508" t="s">
         <v>20</v>
@@ -21398,13 +21400,13 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B509" t="s">
         <v>23</v>
       </c>
       <c r="C509" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D509" t="s">
         <v>24</v>
@@ -21433,13 +21435,13 @@
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B510" t="s">
+        <v>13</v>
+      </c>
+      <c r="C510" t="s">
         <v>1044</v>
-      </c>
-      <c r="B510" t="s">
-        <v>13</v>
-      </c>
-      <c r="C510" t="s">
-        <v>1045</v>
       </c>
       <c r="D510" t="s">
         <v>15</v>
@@ -21451,10 +21453,10 @@
         <v>58</v>
       </c>
       <c r="G510" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H510" t="s">
         <v>1046</v>
-      </c>
-      <c r="H510" t="s">
-        <v>1047</v>
       </c>
       <c r="J510" t="s">
         <v>27</v>
@@ -21468,13 +21470,13 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B511" t="s">
         <v>13</v>
       </c>
       <c r="C511" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D511" t="s">
         <v>24</v>
@@ -21486,10 +21488,10 @@
         <v>58</v>
       </c>
       <c r="G511" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H511" t="s">
         <v>1049</v>
-      </c>
-      <c r="H511" t="s">
-        <v>1050</v>
       </c>
       <c r="J511" t="s">
         <v>39</v>
@@ -21503,13 +21505,13 @@
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B512" t="s">
         <v>23</v>
       </c>
       <c r="C512" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D512" t="s">
         <v>41</v>
@@ -21521,10 +21523,10 @@
         <v>58</v>
       </c>
       <c r="G512" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H512" t="s">
         <v>1052</v>
-      </c>
-      <c r="H512" t="s">
-        <v>1053</v>
       </c>
       <c r="J512" t="s">
         <v>20</v>
@@ -21538,13 +21540,13 @@
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B513" t="s">
         <v>13</v>
       </c>
       <c r="C513" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D513" t="s">
         <v>45</v>
@@ -21567,13 +21569,13 @@
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B514" t="s">
         <v>13</v>
       </c>
       <c r="C514" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D514" t="s">
         <v>50</v>
@@ -21588,7 +21590,7 @@
         <v>33</v>
       </c>
       <c r="H514" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J514" t="s">
         <v>39</v>
@@ -21602,13 +21604,13 @@
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B515" t="s">
+        <v>23</v>
+      </c>
+      <c r="C515" t="s">
         <v>1057</v>
-      </c>
-      <c r="B515" t="s">
-        <v>23</v>
-      </c>
-      <c r="C515" t="s">
-        <v>1058</v>
       </c>
       <c r="D515" t="s">
         <v>24</v>
@@ -21637,13 +21639,13 @@
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B516" t="s">
         <v>13</v>
       </c>
       <c r="C516" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D516" t="s">
         <v>24</v>
@@ -21655,10 +21657,10 @@
         <v>46</v>
       </c>
       <c r="G516" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H516" t="s">
         <v>1060</v>
-      </c>
-      <c r="H516" t="s">
-        <v>1061</v>
       </c>
       <c r="I516" t="s">
         <v>147</v>
@@ -21675,13 +21677,13 @@
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B517" t="s">
         <v>13</v>
       </c>
       <c r="C517" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D517" t="s">
         <v>24</v>
@@ -21704,13 +21706,13 @@
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B518" t="s">
         <v>13</v>
       </c>
       <c r="C518" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D518" t="s">
         <v>24</v>
@@ -21722,10 +21724,10 @@
         <v>17</v>
       </c>
       <c r="G518" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H518" t="s">
         <v>1064</v>
-      </c>
-      <c r="H518" t="s">
-        <v>1065</v>
       </c>
       <c r="J518" t="s">
         <v>39</v>
@@ -21739,13 +21741,13 @@
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B519" t="s">
         <v>23</v>
       </c>
       <c r="C519" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D519" t="s">
         <v>24</v>
@@ -21774,13 +21776,13 @@
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B520" t="s">
         <v>23</v>
       </c>
       <c r="C520" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D520" t="s">
         <v>24</v>
@@ -21809,13 +21811,13 @@
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B521" t="s">
         <v>13</v>
       </c>
       <c r="C521" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D521" t="s">
         <v>24</v>
@@ -21827,10 +21829,10 @@
         <v>46</v>
       </c>
       <c r="G521" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H521" t="s">
         <v>1069</v>
-      </c>
-      <c r="H521" t="s">
-        <v>1070</v>
       </c>
       <c r="J521" t="s">
         <v>39</v>
@@ -21844,13 +21846,13 @@
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B522" t="s">
         <v>13</v>
       </c>
       <c r="C522" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D522" t="s">
         <v>24</v>
@@ -21865,7 +21867,7 @@
         <v>484</v>
       </c>
       <c r="H522" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J522" t="s">
         <v>39</v>
@@ -21879,13 +21881,13 @@
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B523" t="s">
         <v>23</v>
       </c>
       <c r="C523" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D523" t="s">
         <v>24</v>
@@ -21897,10 +21899,10 @@
         <v>46</v>
       </c>
       <c r="G523" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H523" t="s">
         <v>1074</v>
-      </c>
-      <c r="H523" t="s">
-        <v>1075</v>
       </c>
       <c r="J523" t="s">
         <v>20</v>
@@ -21914,13 +21916,13 @@
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B524" t="s">
         <v>13</v>
       </c>
       <c r="C524" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D524" t="s">
         <v>24</v>
@@ -21932,10 +21934,10 @@
         <v>46</v>
       </c>
       <c r="G524" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H524" t="s">
         <v>1077</v>
-      </c>
-      <c r="H524" t="s">
-        <v>1078</v>
       </c>
       <c r="I524" t="s">
         <v>147</v>
@@ -21952,13 +21954,13 @@
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B525" t="s">
         <v>13</v>
       </c>
       <c r="C525" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D525" t="s">
         <v>24</v>
@@ -21981,13 +21983,13 @@
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B526" t="s">
+        <v>13</v>
+      </c>
+      <c r="C526" t="s">
         <v>1080</v>
-      </c>
-      <c r="B526" t="s">
-        <v>13</v>
-      </c>
-      <c r="C526" t="s">
-        <v>1081</v>
       </c>
       <c r="D526" t="s">
         <v>15</v>
@@ -21999,10 +22001,10 @@
         <v>46</v>
       </c>
       <c r="G526" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H526" t="s">
         <v>1082</v>
-      </c>
-      <c r="H526" t="s">
-        <v>1083</v>
       </c>
       <c r="J526" t="s">
         <v>39</v>
@@ -22016,13 +22018,13 @@
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B527" t="s">
         <v>13</v>
       </c>
       <c r="C527" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D527" t="s">
         <v>24</v>
@@ -22045,13 +22047,13 @@
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B528" t="s">
         <v>13</v>
       </c>
       <c r="C528" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D528" t="s">
         <v>24</v>
@@ -22074,13 +22076,13 @@
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B529" t="s">
         <v>13</v>
       </c>
       <c r="C529" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D529" t="s">
         <v>24</v>
@@ -22092,10 +22094,10 @@
         <v>17</v>
       </c>
       <c r="G529" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H529" t="s">
         <v>1087</v>
-      </c>
-      <c r="H529" t="s">
-        <v>1088</v>
       </c>
       <c r="J529" t="s">
         <v>39</v>
@@ -22109,13 +22111,13 @@
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B530" t="s">
         <v>23</v>
       </c>
       <c r="C530" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D530" t="s">
         <v>24</v>
@@ -22130,7 +22132,7 @@
         <v>29</v>
       </c>
       <c r="H530" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="J530" t="s">
         <v>27</v>
@@ -22144,13 +22146,13 @@
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B531" t="s">
         <v>23</v>
       </c>
       <c r="C531" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D531" t="s">
         <v>24</v>
@@ -22162,10 +22164,10 @@
         <v>46</v>
       </c>
       <c r="G531" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H531" t="s">
         <v>1092</v>
-      </c>
-      <c r="H531" t="s">
-        <v>1093</v>
       </c>
       <c r="J531" t="s">
         <v>20</v>
@@ -22179,13 +22181,13 @@
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B532" t="s">
         <v>13</v>
       </c>
       <c r="C532" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D532" t="s">
         <v>24</v>
@@ -22197,10 +22199,10 @@
         <v>119</v>
       </c>
       <c r="G532" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H532" t="s">
         <v>1095</v>
-      </c>
-      <c r="H532" t="s">
-        <v>1096</v>
       </c>
       <c r="J532" t="s">
         <v>39</v>
@@ -22214,13 +22216,13 @@
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B533" t="s">
         <v>13</v>
       </c>
       <c r="C533" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D533" t="s">
         <v>24</v>
@@ -22243,13 +22245,13 @@
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B534" t="s">
         <v>13</v>
       </c>
       <c r="C534" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D534" t="s">
         <v>24</v>
@@ -22261,7 +22263,7 @@
         <v>58</v>
       </c>
       <c r="G534" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J534" t="s">
         <v>39</v>
@@ -22275,13 +22277,13 @@
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B535" t="s">
         <v>13</v>
       </c>
       <c r="C535" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D535" t="s">
         <v>24</v>
@@ -22293,10 +22295,10 @@
         <v>17</v>
       </c>
       <c r="G535" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H535" t="s">
         <v>1101</v>
-      </c>
-      <c r="H535" t="s">
-        <v>1102</v>
       </c>
       <c r="J535" t="s">
         <v>39</v>
@@ -22310,13 +22312,13 @@
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B536" t="s">
         <v>13</v>
       </c>
       <c r="C536" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D536" t="s">
         <v>24</v>
@@ -22331,7 +22333,7 @@
         <v>88</v>
       </c>
       <c r="H536" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J536" t="s">
         <v>39</v>
@@ -22345,13 +22347,13 @@
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B537" t="s">
+        <v>23</v>
+      </c>
+      <c r="C537" t="s">
         <v>1105</v>
-      </c>
-      <c r="B537" t="s">
-        <v>23</v>
-      </c>
-      <c r="C537" t="s">
-        <v>1106</v>
       </c>
       <c r="D537" t="s">
         <v>24</v>
@@ -22363,10 +22365,10 @@
         <v>17</v>
       </c>
       <c r="G537" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H537" t="s">
         <v>1107</v>
-      </c>
-      <c r="H537" t="s">
-        <v>1108</v>
       </c>
       <c r="J537" t="s">
         <v>27</v>
@@ -22380,13 +22382,13 @@
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B538" t="s">
         <v>23</v>
       </c>
       <c r="C538" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D538" t="s">
         <v>24</v>
@@ -22401,7 +22403,7 @@
         <v>442</v>
       </c>
       <c r="H538" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="J538" t="s">
         <v>27</v>
@@ -22415,13 +22417,13 @@
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B539" t="s">
+        <v>23</v>
+      </c>
+      <c r="C539" t="s">
         <v>1111</v>
-      </c>
-      <c r="B539" t="s">
-        <v>23</v>
-      </c>
-      <c r="C539" t="s">
-        <v>1112</v>
       </c>
       <c r="D539" t="s">
         <v>15</v>
@@ -22433,10 +22435,10 @@
         <v>17</v>
       </c>
       <c r="G539" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H539" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="J539" t="s">
         <v>27</v>
@@ -22450,13 +22452,13 @@
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B540" t="s">
         <v>23</v>
       </c>
       <c r="C540" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D540" t="s">
         <v>24</v>
@@ -22468,10 +22470,10 @@
         <v>58</v>
       </c>
       <c r="G540" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H540" t="s">
         <v>1115</v>
-      </c>
-      <c r="H540" t="s">
-        <v>1116</v>
       </c>
       <c r="J540" t="s">
         <v>20</v>
@@ -22485,13 +22487,13 @@
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B541" t="s">
         <v>13</v>
       </c>
       <c r="C541" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D541" t="s">
         <v>24</v>
@@ -22514,13 +22516,13 @@
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B542" t="s">
         <v>13</v>
       </c>
       <c r="C542" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D542" t="s">
         <v>24</v>
@@ -22535,7 +22537,7 @@
         <v>568</v>
       </c>
       <c r="H542" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J542" t="s">
         <v>27</v>
@@ -22549,13 +22551,13 @@
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B543" t="s">
         <v>13</v>
       </c>
       <c r="C543" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D543" t="s">
         <v>24</v>
@@ -22578,13 +22580,13 @@
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B544" t="s">
         <v>23</v>
       </c>
       <c r="C544" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D544" t="s">
         <v>24</v>
@@ -22596,10 +22598,10 @@
         <v>17</v>
       </c>
       <c r="G544" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H544" t="s">
         <v>1122</v>
-      </c>
-      <c r="H544" t="s">
-        <v>1123</v>
       </c>
       <c r="J544" t="s">
         <v>20</v>
@@ -22613,13 +22615,13 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B545" t="s">
         <v>23</v>
       </c>
       <c r="C545" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D545" t="s">
         <v>24</v>
@@ -22631,10 +22633,10 @@
         <v>46</v>
       </c>
       <c r="G545" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H545" t="s">
         <v>1125</v>
-      </c>
-      <c r="H545" t="s">
-        <v>1126</v>
       </c>
       <c r="J545" t="s">
         <v>20</v>
@@ -22648,13 +22650,13 @@
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B546" t="s">
         <v>23</v>
       </c>
       <c r="C546" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D546" t="s">
         <v>24</v>
@@ -22683,13 +22685,13 @@
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B547" t="s">
         <v>23</v>
       </c>
       <c r="C547" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D547" t="s">
         <v>24</v>
@@ -22701,10 +22703,10 @@
         <v>46</v>
       </c>
       <c r="G547" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H547" t="s">
         <v>1129</v>
-      </c>
-      <c r="H547" t="s">
-        <v>1130</v>
       </c>
       <c r="J547" t="s">
         <v>20</v>
@@ -22718,13 +22720,13 @@
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B548" t="s">
         <v>13</v>
       </c>
       <c r="C548" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D548" t="s">
         <v>41</v>
@@ -22736,10 +22738,10 @@
         <v>37</v>
       </c>
       <c r="G548" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H548" t="s">
         <v>1132</v>
-      </c>
-      <c r="H548" t="s">
-        <v>1133</v>
       </c>
       <c r="J548" t="s">
         <v>39</v>
@@ -22753,13 +22755,13 @@
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B549" t="s">
         <v>13</v>
       </c>
       <c r="C549" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D549" t="s">
         <v>45</v>
@@ -22785,13 +22787,13 @@
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B550" t="s">
         <v>13</v>
       </c>
       <c r="C550" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D550" t="s">
         <v>50</v>
@@ -22803,10 +22805,10 @@
         <v>46</v>
       </c>
       <c r="G550" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H550" t="s">
         <v>1136</v>
-      </c>
-      <c r="H550" t="s">
-        <v>1137</v>
       </c>
       <c r="J550" t="s">
         <v>39</v>
@@ -22820,13 +22822,13 @@
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B551" t="s">
+        <v>13</v>
+      </c>
+      <c r="C551" t="s">
         <v>1138</v>
-      </c>
-      <c r="B551" t="s">
-        <v>13</v>
-      </c>
-      <c r="C551" t="s">
-        <v>1139</v>
       </c>
       <c r="D551" t="s">
         <v>24</v>
@@ -22838,10 +22840,10 @@
         <v>17</v>
       </c>
       <c r="G551" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H551" t="s">
         <v>1140</v>
-      </c>
-      <c r="H551" t="s">
-        <v>1141</v>
       </c>
       <c r="J551" t="s">
         <v>27</v>
@@ -22855,13 +22857,13 @@
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B552" t="s">
         <v>23</v>
       </c>
       <c r="C552" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D552" t="s">
         <v>41</v>
@@ -22884,13 +22886,13 @@
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B553" t="s">
         <v>13</v>
       </c>
       <c r="C553" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D553" t="s">
         <v>50</v>
@@ -22902,10 +22904,10 @@
         <v>17</v>
       </c>
       <c r="G553" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H553" t="s">
         <v>1144</v>
-      </c>
-      <c r="H553" t="s">
-        <v>1145</v>
       </c>
       <c r="J553" t="s">
         <v>20</v>
